--- a/excel.xlsx
+++ b/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srika\eclipse-workspace\Jenkins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343FC45E-974C-4C8E-B2F9-5ACF2105940D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D738C9-0C28-4501-8FED-6DC0E89F41C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>UserName</t>
   </si>
@@ -43,6 +43,30 @@
   </si>
   <si>
     <t>locked_out_user1</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Kurella</t>
+  </si>
+  <si>
+    <t>Srikanth</t>
+  </si>
+  <si>
+    <t>Cherry</t>
+  </si>
+  <si>
+    <t>Bittu</t>
+  </si>
+  <si>
+    <t>Man504208</t>
   </si>
 </sst>
 </file>
@@ -368,47 +392,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>504208</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>504208</v>
       </c>
     </row>
   </sheetData>
